--- a/devis.xlsx
+++ b/devis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BeaZ\Desktop\Projet final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Le Oui\Documents\GitHub\ProjetSerre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Devis" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Nom du materiel</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>Alimentation</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>24 Vcc</t>
+  </si>
+  <si>
+    <t>WEI1469470000</t>
+  </si>
+  <si>
+    <t>TS 35</t>
   </si>
 </sst>
 </file>
@@ -216,12 +231,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -746,26 +762,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -777,6 +794,37 @@
       </c>
       <c r="E2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
